--- a/code/backend/010.codegen/model/duzhou-app-modeler.app-module.xlsx
+++ b/code/backend/010.codegen/model/duzhou-app-modeler.app-module.xlsx
@@ -941,10 +941,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -991,6 +991,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -998,24 +1006,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1046,9 +1045,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1061,7 +1060,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,11 +1080,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1097,18 +1096,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1193,7 +1193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,73 +1217,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,7 +1247,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,37 +1343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1637,17 +1637,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1656,7 +1650,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1691,6 +1685,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1698,15 +1707,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1724,91 +1724,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1817,46 +1817,46 @@
     <xf numFmtId="0" fontId="11" fillId="16" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">

--- a/code/backend/010.codegen/model/duzhou-app-modeler.app-module.xlsx
+++ b/code/backend/010.codegen/model/duzhou-app-modeler.app-module.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27645" windowHeight="12330"/>
+    <workbookView windowWidth="27645" windowHeight="12330" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="duzhou_dev_app" sheetId="9" r:id="rId4"/>
     <sheet name="duzhou_dev_app_domain" sheetId="13" r:id="rId5"/>
     <sheet name="duzhou_dev_app_dict" sheetId="14" r:id="rId6"/>
-    <sheet name="duzhou_dev_app_service" sheetId="11" r:id="rId7"/>
+    <sheet name="duzhou_dev_app_module" sheetId="11" r:id="rId7"/>
     <sheet name="duzhou_dev_app_entity" sheetId="12" r:id="rId8"/>
     <sheet name="duzhou_dev_app_entity_column" sheetId="15" r:id="rId9"/>
     <sheet name="duzhou_dev_app_entity_relation" sheetId="16" r:id="rId10"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="299">
   <si>
     <t>#变量名</t>
   </si>
@@ -109,6 +109,15 @@
     <t>app.maven.parent.version</t>
   </si>
   <si>
+    <t>app.web.starter.type</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>可选值：spring, quarkus</t>
+  </si>
+  <si>
     <t>app.module.name</t>
   </si>
   <si>
@@ -130,7 +139,7 @@
     <t>app.module.db.dialect</t>
   </si>
   <si>
-    <t>mysql</t>
+    <t>mysql,h2</t>
   </si>
   <si>
     <t>生成对应数据库的建表语句，可以是逗号分隔的多个名称，例如 mysql,oracle,postgresql</t>
@@ -214,7 +223,7 @@
     <t>16M</t>
   </si>
   <si>
-    <t>app_dev/entity-tagset</t>
+    <t>app_modeler/entity-tagset</t>
   </si>
   <si>
     <t>值类型</t>
@@ -271,7 +280,7 @@
     <t>需生成 SqlMapper 代码</t>
   </si>
   <si>
-    <t>app_dev/entity-column-tagset</t>
+    <t>app_modeler/entity-column-tagset</t>
   </si>
   <si>
     <t>实体字段标签</t>
@@ -331,7 +340,7 @@
     <t>默认排序属性（降序）</t>
   </si>
   <si>
-    <t>app_dev/entity-relation-type</t>
+    <t>app_modeler/entity-relation-type</t>
   </si>
   <si>
     <t>实体关联类型</t>
@@ -358,7 +367,7 @@
     <t>一对多关联</t>
   </si>
   <si>
-    <t>app_dev/entity-relation-tagset</t>
+    <t>app_modeler/entity-relation-tagset</t>
   </si>
   <si>
     <t>实体关联标签</t>
@@ -687,31 +696,31 @@
     <t>UK_DEV_APP_DICT_NAME</t>
   </si>
   <si>
-    <t>duzhou_dev_app_service</t>
-  </si>
-  <si>
-    <t>DevAppService</t>
-  </si>
-  <si>
-    <t>应用服务</t>
-  </si>
-  <si>
-    <t>Application Service</t>
-  </si>
-  <si>
-    <t>应用的后台服务</t>
+    <t>duzhou_dev_app_module</t>
+  </si>
+  <si>
+    <t>DevAppModule</t>
+  </si>
+  <si>
+    <t>应用模块</t>
+  </si>
+  <si>
+    <t>Application Module</t>
+  </si>
+  <si>
+    <t>应用的服务模块</t>
   </si>
   <si>
     <t>code,appId</t>
   </si>
   <si>
-    <t>UK_DEV_APP_SERVICE_CODE</t>
+    <t>UK_DEV_APP_MODULE_CODE</t>
   </si>
   <si>
     <t>app</t>
   </si>
   <si>
-    <t>services</t>
+    <t>modules</t>
   </si>
   <si>
     <t>pub,ref-pub,ref-cascade-delete</t>
@@ -738,10 +747,10 @@
     <t>应用的持久化实体</t>
   </si>
   <si>
-    <t>SERVICE_ID</t>
-  </si>
-  <si>
-    <t>所属服务</t>
+    <t>MODULE_ID</t>
+  </si>
+  <si>
+    <t>所属模块</t>
   </si>
   <si>
     <t>实体名</t>
@@ -762,28 +771,28 @@
     <t>别名列表</t>
   </si>
   <si>
-    <t>name,serviceId</t>
+    <t>name,moduleId</t>
   </si>
   <si>
     <t>UK_DEV_APP_ENTITY_NAME</t>
   </si>
   <si>
-    <t>在服务内唯一</t>
+    <t>在模块内唯一</t>
   </si>
   <si>
     <t>属性路径</t>
   </si>
   <si>
-    <t>service.appId</t>
-  </si>
-  <si>
-    <t>service</t>
+    <t>module.appId</t>
+  </si>
+  <si>
+    <t>module</t>
   </si>
   <si>
     <t>entities</t>
   </si>
   <si>
-    <t>serviceId</t>
+    <t>moduleId</t>
   </si>
   <si>
     <t>duzhou_dev_app_entity_column</t>
@@ -941,10 +950,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -976,31 +985,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1013,11 +1000,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1029,7 +1040,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1060,14 +1071,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,34 +1092,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1181,13 +1190,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,7 +1298,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,139 +1340,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1646,15 +1655,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1666,21 +1666,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1719,150 +1704,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2472,10 +2481,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -2591,48 +2600,54 @@
       <c r="A12" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="91"/>
+      <c r="C12" s="91" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:3">
       <c r="A13" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="91" t="s">
         <v>25</v>
+      </c>
+      <c r="B13" s="92" t="s">
+        <v>26</v>
       </c>
       <c r="C13" s="91"/>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:3">
       <c r="A14" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="92" t="s">
         <v>27</v>
       </c>
+      <c r="B14" s="91" t="s">
+        <v>28</v>
+      </c>
       <c r="C14" s="91"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="33" spans="1:3">
+    <row r="15" s="2" customFormat="1" spans="1:3">
       <c r="A15" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="B15" s="92" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="55"/>
+      <c r="C15" s="91"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="33" spans="1:3">
+      <c r="A16" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:3">
       <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="55"/>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:3">
@@ -2654,6 +2669,11 @@
       <c r="A21" s="55"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:3">
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2666,8 +2686,8 @@
   <sheetPr/>
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2689,12 +2709,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
@@ -2710,20 +2730,20 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
@@ -2735,17 +2755,17 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="36"/>
@@ -2758,17 +2778,17 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="36"/>
@@ -2781,12 +2801,12 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
@@ -2819,7 +2839,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2838,49 +2858,49 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="O8" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -2888,24 +2908,24 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="6"/>
       <c r="H9" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J9" s="44">
         <v>32</v>
@@ -2923,18 +2943,18 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="14"/>
       <c r="H10" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J10" s="44">
         <v>32</v>
@@ -2952,18 +2972,18 @@
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="17"/>
       <c r="H11" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J11" s="44">
         <v>32</v>
@@ -2981,18 +3001,18 @@
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="18" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J12" s="44">
         <v>200</v>
@@ -3010,16 +3030,16 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="17"/>
       <c r="H13" s="10"/>
       <c r="I13" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J13" s="44">
         <v>200</v>
@@ -3037,25 +3057,25 @@
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="17"/>
       <c r="H14" s="26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J14" s="44">
         <v>20</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="47" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="47"/>
@@ -3068,16 +3088,16 @@
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="6"/>
       <c r="H15" s="26"/>
       <c r="I15" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J15" s="44">
         <v>200</v>
@@ -3095,16 +3115,16 @@
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="18" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="6"/>
       <c r="H16" s="10"/>
       <c r="I16" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J16" s="44">
         <v>200</v>
@@ -3113,7 +3133,7 @@
       <c r="L16" s="45"/>
       <c r="M16" s="6"/>
       <c r="N16" s="45" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O16" s="10"/>
     </row>
@@ -3124,20 +3144,20 @@
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J17" s="44"/>
       <c r="K17" s="10"/>
@@ -3284,7 +3304,7 @@
     </row>
     <row r="26" s="3" customFormat="1" spans="1:15">
       <c r="A26" s="21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -3303,28 +3323,28 @@
     </row>
     <row r="27" s="3" customFormat="1" spans="1:15">
       <c r="A27" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
       <c r="J27" s="24" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K27" s="49"/>
       <c r="L27" s="49"/>
@@ -3419,7 +3439,7 @@
     </row>
     <row r="33" s="3" customFormat="1" spans="1:15">
       <c r="A33" s="21" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -3438,28 +3458,28 @@
     </row>
     <row r="34" s="3" customFormat="1" spans="1:15">
       <c r="A34" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="24" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
       <c r="J34" s="24" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K34" s="49"/>
       <c r="L34" s="49"/>
@@ -3554,7 +3574,7 @@
     </row>
     <row r="40" s="1" customFormat="1" spans="1:15">
       <c r="A40" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -3576,27 +3596,27 @@
         <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -3605,23 +3625,23 @@
     <row r="42" s="1" customFormat="1" spans="1:15">
       <c r="A42" s="29"/>
       <c r="B42" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
@@ -3630,13 +3650,13 @@
     <row r="43" s="1" customFormat="1" spans="1:15">
       <c r="A43" s="29"/>
       <c r="B43" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -3651,7 +3671,7 @@
     <row r="44" s="1" customFormat="1" spans="1:15">
       <c r="A44" s="29"/>
       <c r="B44" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
@@ -3661,11 +3681,11 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="40" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M44" s="41"/>
       <c r="N44" s="41"/>
@@ -3674,7 +3694,7 @@
     <row r="45" s="1" customFormat="1" spans="1:15">
       <c r="A45" s="29"/>
       <c r="B45" s="30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
@@ -3693,21 +3713,21 @@
     <row r="46" s="1" customFormat="1" spans="1:15">
       <c r="A46" s="29"/>
       <c r="B46" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -3723,12 +3743,12 @@
         <v>1</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -3779,25 +3799,25 @@
         <v>1</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="6" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -3806,23 +3826,23 @@
     <row r="51" s="1" customFormat="1" spans="1:15">
       <c r="A51" s="29"/>
       <c r="B51" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -3831,13 +3851,13 @@
     <row r="52" s="1" customFormat="1" spans="1:15">
       <c r="A52" s="29"/>
       <c r="B52" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
@@ -3852,7 +3872,7 @@
     <row r="53" s="1" customFormat="1" spans="1:15">
       <c r="A53" s="29"/>
       <c r="B53" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="6"/>
@@ -3862,11 +3882,11 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="40" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M53" s="41"/>
       <c r="N53" s="41"/>
@@ -3875,7 +3895,7 @@
     <row r="54" s="1" customFormat="1" spans="1:15">
       <c r="A54" s="29"/>
       <c r="B54" s="30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="30"/>
@@ -3894,21 +3914,21 @@
     <row r="55" s="1" customFormat="1" spans="1:15">
       <c r="A55" s="29"/>
       <c r="B55" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -3924,12 +3944,12 @@
         <v>1</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -4140,25 +4160,25 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
@@ -4166,11 +4186,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E2" s="10">
         <v>50</v>
@@ -4183,11 +4203,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E3" s="10">
         <v>50</v>
@@ -4200,11 +4220,11 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -4215,11 +4235,11 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -4230,11 +4250,11 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -4245,13 +4265,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E7" s="26">
         <v>200</v>
@@ -4264,13 +4284,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E8" s="26">
         <v>200</v>
@@ -4283,11 +4303,11 @@
         <v>1</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E9" s="26">
         <v>100</v>
@@ -4300,11 +4320,11 @@
         <v>1</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E10" s="26">
         <v>100</v>
@@ -4317,16 +4337,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
@@ -4336,16 +4356,16 @@
         <v>1</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
@@ -4355,16 +4375,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
@@ -4381,7 +4401,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4399,46 +4419,46 @@
         <v>1</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C1" s="71"/>
       <c r="D1" s="72"/>
       <c r="E1" s="84" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G1" s="86" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="73"/>
       <c r="B2" s="70" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="71"/>
       <c r="D2" s="72"/>
       <c r="E2" s="84" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F2" s="70" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G2" s="79" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="73"/>
       <c r="B3" s="70" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C3" s="71"/>
       <c r="D3" s="72"/>
       <c r="E3" s="40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F3" s="41"/>
       <c r="G3" s="50"/>
@@ -4446,7 +4466,7 @@
     <row r="4" spans="1:7">
       <c r="A4" s="73"/>
       <c r="B4" s="74" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="75"/>
       <c r="D4" s="75"/>
@@ -4457,22 +4477,22 @@
     <row r="5" spans="1:7">
       <c r="A5" s="73"/>
       <c r="B5" s="76" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="78" t="s">
         <v>67</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="78" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4481,13 +4501,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E6" s="88" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F6" s="88"/>
       <c r="G6" s="88"/>
@@ -4498,13 +4518,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E7" s="88" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F7" s="88"/>
       <c r="G7" s="88"/>
@@ -4515,13 +4535,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E8" s="88" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F8" s="88"/>
       <c r="G8" s="88"/>
@@ -4549,46 +4569,46 @@
         <v>1</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="72"/>
       <c r="E11" s="84" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F11" s="85" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G11" s="86" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="73"/>
       <c r="B12" s="70" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="72"/>
       <c r="E12" s="84" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F12" s="70" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="73"/>
       <c r="B13" s="70" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C13" s="71"/>
       <c r="D13" s="72"/>
       <c r="E13" s="40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="50"/>
@@ -4596,7 +4616,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="73"/>
       <c r="B14" s="74" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C14" s="75"/>
       <c r="D14" s="75"/>
@@ -4607,22 +4627,22 @@
     <row r="15" spans="1:7">
       <c r="A15" s="73"/>
       <c r="B15" s="76" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C15" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="78" t="s">
         <v>67</v>
-      </c>
-      <c r="D15" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="78" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4631,13 +4651,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D16" s="79" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E16" s="88" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F16" s="88"/>
       <c r="G16" s="88"/>
@@ -4648,17 +4668,17 @@
         <v>1</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E17" s="88" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F17" s="88"/>
       <c r="G17" s="88" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4667,13 +4687,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D18" s="79" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E18" s="88" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F18" s="88"/>
       <c r="G18" s="88"/>
@@ -4684,13 +4704,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D19" s="79" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E19" s="88" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F19" s="88"/>
       <c r="G19" s="88"/>
@@ -4701,17 +4721,17 @@
         <v>1</v>
       </c>
       <c r="C20" s="79" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D20" s="79" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E20" s="88" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F20" s="88"/>
       <c r="G20" s="88" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4720,13 +4740,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="79" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D21" s="79" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E21" s="88" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F21" s="88"/>
       <c r="G21" s="88"/>
@@ -4737,13 +4757,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="79" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D22" s="79" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E22" s="88" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F22" s="88"/>
       <c r="G22" s="88"/>
@@ -4754,13 +4774,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="79" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D23" s="79" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E23" s="88" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F23" s="88"/>
       <c r="G23" s="88"/>
@@ -4788,46 +4808,46 @@
         <v>1</v>
       </c>
       <c r="B26" s="70" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="72"/>
       <c r="E26" s="84" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F26" s="85" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G26" s="86" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="73"/>
       <c r="B27" s="70" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="72"/>
       <c r="E27" s="84" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F27" s="70" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G27" s="79" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="73"/>
       <c r="B28" s="70" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C28" s="71"/>
       <c r="D28" s="72"/>
       <c r="E28" s="40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F28" s="41"/>
       <c r="G28" s="50"/>
@@ -4835,7 +4855,7 @@
     <row r="29" spans="1:7">
       <c r="A29" s="73"/>
       <c r="B29" s="74" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="75"/>
@@ -4846,22 +4866,22 @@
     <row r="30" spans="1:7">
       <c r="A30" s="73"/>
       <c r="B30" s="76" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C30" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="78" t="s">
         <v>67</v>
-      </c>
-      <c r="D30" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="78" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4870,13 +4890,13 @@
         <v>1</v>
       </c>
       <c r="C31" s="79" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D31" s="79" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E31" s="88" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F31" s="88"/>
       <c r="G31" s="88"/>
@@ -4887,13 +4907,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="79" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D32" s="79" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E32" s="88" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F32" s="88"/>
       <c r="G32" s="88"/>
@@ -4930,46 +4950,46 @@
         <v>1</v>
       </c>
       <c r="B36" s="70" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C36" s="71"/>
       <c r="D36" s="72"/>
       <c r="E36" s="84" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F36" s="85" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G36" s="86" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="73"/>
       <c r="B37" s="70" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C37" s="71"/>
       <c r="D37" s="72"/>
       <c r="E37" s="84" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F37" s="70" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G37" s="79" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="73"/>
       <c r="B38" s="70" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C38" s="71"/>
       <c r="D38" s="72"/>
       <c r="E38" s="40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F38" s="41"/>
       <c r="G38" s="50"/>
@@ -4977,7 +4997,7 @@
     <row r="39" spans="1:7">
       <c r="A39" s="73"/>
       <c r="B39" s="74" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C39" s="75"/>
       <c r="D39" s="75"/>
@@ -4988,22 +5008,22 @@
     <row r="40" spans="1:7">
       <c r="A40" s="73"/>
       <c r="B40" s="76" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C40" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="78" t="s">
         <v>67</v>
-      </c>
-      <c r="D40" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" s="78" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5012,13 +5032,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="79" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D41" s="79" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E41" s="88" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F41" s="88"/>
       <c r="G41" s="88"/>
@@ -5029,13 +5049,13 @@
         <v>1</v>
       </c>
       <c r="C42" s="79" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D42" s="79" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E42" s="88" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F42" s="88"/>
       <c r="G42" s="88"/>
@@ -5046,13 +5066,13 @@
         <v>1</v>
       </c>
       <c r="C43" s="79" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D43" s="79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E43" s="88" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F43" s="88"/>
       <c r="G43" s="88"/>
@@ -5139,12 +5159,12 @@
   <sheetData>
     <row r="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
@@ -5160,20 +5180,20 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
@@ -5185,17 +5205,17 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="36"/>
@@ -5208,17 +5228,17 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="36"/>
@@ -5231,7 +5251,7 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5267,7 +5287,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -5286,49 +5306,49 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="O8" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -5336,24 +5356,24 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="6"/>
       <c r="H9" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J9" s="44">
         <v>32</v>
@@ -5371,18 +5391,18 @@
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="10"/>
@@ -5398,20 +5418,20 @@
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -5425,24 +5445,24 @@
         <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="17" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -5456,26 +5476,26 @@
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
@@ -5491,20 +5511,20 @@
       <c r="B14" s="61"/>
       <c r="C14" s="62"/>
       <c r="D14" s="63" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F14" s="64"/>
       <c r="G14" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H14" s="61" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I14" s="63" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J14" s="61"/>
       <c r="K14" s="61"/>
@@ -5522,18 +5542,18 @@
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="17"/>
       <c r="H15" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J15" s="44">
         <v>100</v>
@@ -5551,18 +5571,18 @@
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="17"/>
       <c r="H16" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J16" s="44">
         <v>50</v>
@@ -5571,7 +5591,7 @@
       <c r="L16" s="47"/>
       <c r="M16" s="17"/>
       <c r="N16" s="47" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O16" s="55"/>
     </row>
@@ -5582,18 +5602,18 @@
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="17"/>
       <c r="H17" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J17" s="44">
         <v>50</v>
@@ -5611,18 +5631,18 @@
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J18" s="44"/>
       <c r="K18" s="10"/>
@@ -5638,18 +5658,18 @@
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="6"/>
       <c r="H19" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I19" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J19" s="44">
         <v>200</v>
@@ -5764,7 +5784,7 @@
     </row>
     <row r="26" s="3" customFormat="1" spans="1:15">
       <c r="A26" s="21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -5783,28 +5803,28 @@
     </row>
     <row r="27" s="3" customFormat="1" spans="1:15">
       <c r="A27" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
       <c r="J27" s="24" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K27" s="49"/>
       <c r="L27" s="49"/>
@@ -5817,16 +5837,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="40" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H28" s="41"/>
       <c r="I28" s="50"/>
@@ -5842,16 +5862,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="26" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="40" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H29" s="41"/>
       <c r="I29" s="50"/>
@@ -5915,7 +5935,7 @@
     </row>
     <row r="33" s="1" customFormat="1" spans="1:15">
       <c r="A33" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -5935,19 +5955,19 @@
     <row r="34" s="1" customFormat="1" spans="1:15">
       <c r="A34" s="29"/>
       <c r="B34" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="6"/>
@@ -5958,19 +5978,19 @@
     <row r="35" s="1" customFormat="1" spans="1:15">
       <c r="A35" s="29"/>
       <c r="B35" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="6"/>
@@ -5981,13 +6001,13 @@
     <row r="36" s="1" customFormat="1" spans="1:15">
       <c r="A36" s="29"/>
       <c r="B36" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -6002,7 +6022,7 @@
     <row r="37" s="1" customFormat="1" spans="1:15">
       <c r="A37" s="29"/>
       <c r="B37" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="6"/>
@@ -6012,7 +6032,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="6"/>
@@ -6023,7 +6043,7 @@
     <row r="38" s="1" customFormat="1" spans="1:15">
       <c r="A38" s="29"/>
       <c r="B38" s="30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
@@ -6042,21 +6062,21 @@
     <row r="39" s="1" customFormat="1" spans="1:15">
       <c r="A39" s="29"/>
       <c r="B39" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -6122,19 +6142,19 @@
     <row r="43" s="1" customFormat="1" spans="1:15">
       <c r="A43" s="29"/>
       <c r="B43" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="6"/>
@@ -6145,19 +6165,19 @@
     <row r="44" s="1" customFormat="1" spans="1:15">
       <c r="A44" s="29"/>
       <c r="B44" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="6"/>
@@ -6168,13 +6188,13 @@
     <row r="45" s="1" customFormat="1" spans="1:15">
       <c r="A45" s="29"/>
       <c r="B45" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -6189,7 +6209,7 @@
     <row r="46" s="1" customFormat="1" spans="1:15">
       <c r="A46" s="29"/>
       <c r="B46" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="6"/>
@@ -6199,7 +6219,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="6"/>
@@ -6210,7 +6230,7 @@
     <row r="47" s="1" customFormat="1" spans="1:15">
       <c r="A47" s="29"/>
       <c r="B47" s="30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
@@ -6229,21 +6249,21 @@
     <row r="48" s="1" customFormat="1" spans="1:15">
       <c r="A48" s="29"/>
       <c r="B48" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -6462,12 +6482,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
@@ -6483,20 +6503,20 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
@@ -6508,17 +6528,17 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="36"/>
@@ -6531,17 +6551,17 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="36"/>
@@ -6554,12 +6574,12 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
@@ -6592,7 +6612,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -6611,49 +6631,49 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="O8" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -6661,24 +6681,24 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="6"/>
       <c r="H9" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J9" s="44">
         <v>32</v>
@@ -6696,18 +6716,18 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="14"/>
       <c r="H10" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J10" s="44">
         <v>32</v>
@@ -6725,18 +6745,18 @@
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="17"/>
       <c r="H11" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J11" s="44">
         <v>100</v>
@@ -6753,21 +6773,21 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="17"/>
       <c r="H12" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J12" s="44">
         <v>100</v>
@@ -6785,16 +6805,16 @@
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="18" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="6"/>
       <c r="H13" s="10"/>
       <c r="I13" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J13" s="44">
         <v>50</v>
@@ -6812,18 +6832,18 @@
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="18" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="6"/>
       <c r="H14" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J14" s="44">
         <v>50</v>
@@ -6841,16 +6861,16 @@
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="18" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="6"/>
       <c r="H15" s="10"/>
       <c r="I15" s="18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J15" s="44"/>
       <c r="K15" s="10"/>
@@ -6866,16 +6886,16 @@
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="18" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="6"/>
       <c r="H16" s="10"/>
       <c r="I16" s="18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J16" s="44"/>
       <c r="K16" s="10"/>
@@ -6988,7 +7008,7 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:15">
       <c r="A23" s="21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -7007,28 +7027,28 @@
     </row>
     <row r="24" s="3" customFormat="1" spans="1:15">
       <c r="A24" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="24" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K24" s="49"/>
       <c r="L24" s="49"/>
@@ -7041,21 +7061,21 @@
         <v>1</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H25" s="41"/>
       <c r="I25" s="50"/>
       <c r="J25" s="40" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K25" s="41"/>
       <c r="L25" s="41"/>
@@ -7133,7 +7153,7 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="1:15">
       <c r="A30" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -7153,19 +7173,19 @@
     <row r="31" s="1" customFormat="1" spans="1:15">
       <c r="A31" s="29"/>
       <c r="B31" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="6"/>
@@ -7176,19 +7196,19 @@
     <row r="32" s="1" customFormat="1" spans="1:15">
       <c r="A32" s="29"/>
       <c r="B32" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="6"/>
@@ -7199,13 +7219,13 @@
     <row r="33" s="1" customFormat="1" spans="1:15">
       <c r="A33" s="29"/>
       <c r="B33" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -7220,7 +7240,7 @@
     <row r="34" s="1" customFormat="1" spans="1:15">
       <c r="A34" s="29"/>
       <c r="B34" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="6"/>
@@ -7230,7 +7250,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="40"/>
@@ -7241,7 +7261,7 @@
     <row r="35" s="1" customFormat="1" spans="1:15">
       <c r="A35" s="29"/>
       <c r="B35" s="30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
@@ -7260,21 +7280,21 @@
     <row r="36" s="1" customFormat="1" spans="1:15">
       <c r="A36" s="29"/>
       <c r="B36" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -7340,19 +7360,19 @@
     <row r="40" s="1" customFormat="1" spans="1:15">
       <c r="A40" s="29"/>
       <c r="B40" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="6"/>
@@ -7363,19 +7383,19 @@
     <row r="41" s="1" customFormat="1" spans="1:15">
       <c r="A41" s="29"/>
       <c r="B41" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="6"/>
@@ -7386,13 +7406,13 @@
     <row r="42" s="1" customFormat="1" spans="1:15">
       <c r="A42" s="29"/>
       <c r="B42" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -7407,7 +7427,7 @@
     <row r="43" s="1" customFormat="1" spans="1:15">
       <c r="A43" s="29"/>
       <c r="B43" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="6"/>
@@ -7417,7 +7437,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="6"/>
@@ -7428,7 +7448,7 @@
     <row r="44" s="1" customFormat="1" spans="1:15">
       <c r="A44" s="29"/>
       <c r="B44" s="30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
@@ -7447,21 +7467,21 @@
     <row r="45" s="1" customFormat="1" spans="1:15">
       <c r="A45" s="29"/>
       <c r="B45" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -7679,12 +7699,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
@@ -7700,20 +7720,20 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
@@ -7725,17 +7745,17 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="36"/>
@@ -7748,17 +7768,17 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="36"/>
@@ -7771,12 +7791,12 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
@@ -7809,7 +7829,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -7828,49 +7848,49 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="O8" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -7878,24 +7898,24 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="6"/>
       <c r="H9" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J9" s="44">
         <v>32</v>
@@ -7913,18 +7933,18 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="14"/>
       <c r="H10" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J10" s="44">
         <v>32</v>
@@ -7942,18 +7962,18 @@
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="17"/>
       <c r="H11" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J11" s="44">
         <v>100</v>
@@ -7970,21 +7990,21 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="17"/>
       <c r="H12" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J12" s="44">
         <v>100</v>
@@ -7993,7 +8013,7 @@
       <c r="L12" s="47"/>
       <c r="M12" s="17"/>
       <c r="N12" s="47" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O12" s="55"/>
     </row>
@@ -8004,18 +8024,18 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="17"/>
       <c r="H13" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J13" s="44">
         <v>50</v>
@@ -8033,20 +8053,20 @@
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J14" s="44"/>
       <c r="K14" s="10"/>
@@ -8210,7 +8230,7 @@
     </row>
     <row r="24" s="3" customFormat="1" spans="1:15">
       <c r="A24" s="21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -8229,28 +8249,28 @@
     </row>
     <row r="25" s="3" customFormat="1" spans="1:15">
       <c r="A25" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
       <c r="J25" s="24" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K25" s="49"/>
       <c r="L25" s="49"/>
@@ -8263,21 +8283,21 @@
         <v>1</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="40" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H26" s="41"/>
       <c r="I26" s="50"/>
       <c r="J26" s="40" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K26" s="41"/>
       <c r="L26" s="41"/>
@@ -8355,7 +8375,7 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="1:15">
       <c r="A31" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -8375,19 +8395,19 @@
     <row r="32" s="1" customFormat="1" spans="1:15">
       <c r="A32" s="29"/>
       <c r="B32" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="6"/>
@@ -8398,19 +8418,19 @@
     <row r="33" s="1" customFormat="1" spans="1:15">
       <c r="A33" s="29"/>
       <c r="B33" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="6"/>
@@ -8421,13 +8441,13 @@
     <row r="34" s="1" customFormat="1" spans="1:15">
       <c r="A34" s="29"/>
       <c r="B34" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -8442,7 +8462,7 @@
     <row r="35" s="1" customFormat="1" spans="1:15">
       <c r="A35" s="29"/>
       <c r="B35" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="6"/>
@@ -8452,7 +8472,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="40"/>
@@ -8463,7 +8483,7 @@
     <row r="36" s="1" customFormat="1" spans="1:15">
       <c r="A36" s="29"/>
       <c r="B36" s="30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
@@ -8482,21 +8502,21 @@
     <row r="37" s="1" customFormat="1" spans="1:15">
       <c r="A37" s="29"/>
       <c r="B37" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -8562,19 +8582,19 @@
     <row r="41" s="1" customFormat="1" spans="1:15">
       <c r="A41" s="29"/>
       <c r="B41" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="6"/>
@@ -8585,19 +8605,19 @@
     <row r="42" s="1" customFormat="1" spans="1:15">
       <c r="A42" s="29"/>
       <c r="B42" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="6"/>
@@ -8608,13 +8628,13 @@
     <row r="43" s="1" customFormat="1" spans="1:15">
       <c r="A43" s="29"/>
       <c r="B43" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -8629,7 +8649,7 @@
     <row r="44" s="1" customFormat="1" spans="1:15">
       <c r="A44" s="29"/>
       <c r="B44" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
@@ -8639,7 +8659,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="6"/>
@@ -8650,7 +8670,7 @@
     <row r="45" s="1" customFormat="1" spans="1:15">
       <c r="A45" s="29"/>
       <c r="B45" s="30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
@@ -8669,21 +8689,21 @@
     <row r="46" s="1" customFormat="1" spans="1:15">
       <c r="A46" s="29"/>
       <c r="B46" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -8880,7 +8900,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8902,12 +8922,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
@@ -8923,20 +8943,20 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
@@ -8948,17 +8968,17 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="36"/>
@@ -8971,17 +8991,17 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="36"/>
@@ -8994,12 +9014,12 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
@@ -9032,7 +9052,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -9051,49 +9071,49 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="O8" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -9101,24 +9121,24 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="6"/>
       <c r="H9" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J9" s="44">
         <v>32</v>
@@ -9136,18 +9156,18 @@
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="10"/>
@@ -9163,20 +9183,20 @@
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -9190,24 +9210,24 @@
         <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="17" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -9221,26 +9241,26 @@
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
@@ -9256,20 +9276,20 @@
       <c r="B14" s="61"/>
       <c r="C14" s="62"/>
       <c r="D14" s="63" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F14" s="64"/>
       <c r="G14" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H14" s="61" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I14" s="63" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J14" s="61"/>
       <c r="K14" s="61"/>
@@ -9287,18 +9307,18 @@
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="14"/>
       <c r="H15" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J15" s="44">
         <v>32</v>
@@ -9316,18 +9336,18 @@
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="17"/>
       <c r="H16" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J16" s="44">
         <v>100</v>
@@ -9345,18 +9365,18 @@
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="17"/>
       <c r="H17" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J17" s="44">
         <v>100</v>
@@ -9365,7 +9385,7 @@
       <c r="L17" s="47"/>
       <c r="M17" s="17"/>
       <c r="N17" s="47" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O17" s="55"/>
     </row>
@@ -9439,7 +9459,7 @@
     </row>
     <row r="22" s="3" customFormat="1" spans="1:15">
       <c r="A22" s="21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -9458,28 +9478,28 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:15">
       <c r="A23" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="24" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K23" s="49"/>
       <c r="L23" s="49"/>
@@ -9492,21 +9512,21 @@
         <v>1</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="40" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H24" s="41"/>
       <c r="I24" s="50"/>
       <c r="J24" s="40" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K24" s="41"/>
       <c r="L24" s="41"/>
@@ -9584,7 +9604,7 @@
     </row>
     <row r="29" s="1" customFormat="1" spans="1:15">
       <c r="A29" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -9606,27 +9626,27 @@
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -9635,23 +9655,23 @@
     <row r="31" s="1" customFormat="1" spans="1:15">
       <c r="A31" s="29"/>
       <c r="B31" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -9660,13 +9680,13 @@
     <row r="32" s="1" customFormat="1" spans="1:15">
       <c r="A32" s="29"/>
       <c r="B32" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -9681,7 +9701,7 @@
     <row r="33" s="1" customFormat="1" spans="1:15">
       <c r="A33" s="29"/>
       <c r="B33" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
@@ -9691,11 +9711,11 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="40" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
@@ -9704,7 +9724,7 @@
     <row r="34" s="1" customFormat="1" spans="1:15">
       <c r="A34" s="29"/>
       <c r="B34" s="30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
@@ -9723,21 +9743,21 @@
     <row r="35" s="1" customFormat="1" spans="1:15">
       <c r="A35" s="29"/>
       <c r="B35" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -9753,12 +9773,12 @@
         <v>1</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -9807,19 +9827,19 @@
     <row r="39" s="1" customFormat="1" spans="1:15">
       <c r="A39" s="29"/>
       <c r="B39" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="6"/>
@@ -9830,19 +9850,19 @@
     <row r="40" s="1" customFormat="1" spans="1:15">
       <c r="A40" s="29"/>
       <c r="B40" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="6"/>
@@ -9853,13 +9873,13 @@
     <row r="41" s="1" customFormat="1" spans="1:15">
       <c r="A41" s="29"/>
       <c r="B41" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -9874,7 +9894,7 @@
     <row r="42" s="1" customFormat="1" spans="1:15">
       <c r="A42" s="29"/>
       <c r="B42" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="6"/>
@@ -9884,7 +9904,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="6"/>
@@ -9895,7 +9915,7 @@
     <row r="43" s="1" customFormat="1" spans="1:15">
       <c r="A43" s="29"/>
       <c r="B43" s="30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
@@ -9914,21 +9934,21 @@
     <row r="44" s="1" customFormat="1" spans="1:15">
       <c r="A44" s="29"/>
       <c r="B44" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -10125,7 +10145,7 @@
   <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39:I39"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10146,12 +10166,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
@@ -10167,20 +10187,20 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
@@ -10192,17 +10212,17 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="36"/>
@@ -10215,20 +10235,20 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
@@ -10240,12 +10260,12 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
@@ -10278,7 +10298,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -10297,49 +10317,49 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="O8" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -10347,24 +10367,24 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="6"/>
       <c r="H9" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J9" s="44">
         <v>32</v>
@@ -10382,18 +10402,18 @@
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J10" s="15">
         <v>50</v>
@@ -10411,20 +10431,20 @@
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -10438,24 +10458,24 @@
         <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="17" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J12" s="15">
         <v>50</v>
@@ -10471,26 +10491,26 @@
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
@@ -10506,20 +10526,20 @@
       <c r="B14" s="61"/>
       <c r="C14" s="62"/>
       <c r="D14" s="63" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F14" s="64"/>
       <c r="G14" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H14" s="61" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I14" s="63" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J14" s="61"/>
       <c r="K14" s="61"/>
@@ -10537,18 +10557,18 @@
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="14"/>
       <c r="H15" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J15" s="44">
         <v>32</v>
@@ -10566,18 +10586,18 @@
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="17"/>
       <c r="H16" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J16" s="44">
         <v>100</v>
@@ -10595,18 +10615,18 @@
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="17"/>
       <c r="H17" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J17" s="44">
         <v>100</v>
@@ -10624,18 +10644,18 @@
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="17"/>
       <c r="H18" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I18" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J18" s="44">
         <v>100</v>
@@ -10653,16 +10673,16 @@
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="17"/>
       <c r="H19" s="10"/>
       <c r="I19" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J19" s="44">
         <v>100</v>
@@ -10680,18 +10700,18 @@
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J20" s="44"/>
       <c r="K20" s="15"/>
@@ -10707,18 +10727,18 @@
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J21" s="44"/>
       <c r="K21" s="15"/>
@@ -10831,7 +10851,7 @@
     </row>
     <row r="28" s="3" customFormat="1" spans="1:15">
       <c r="A28" s="21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -10850,28 +10870,28 @@
     </row>
     <row r="29" s="3" customFormat="1" spans="1:15">
       <c r="A29" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
       <c r="J29" s="24" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K29" s="49"/>
       <c r="L29" s="49"/>
@@ -10884,21 +10904,21 @@
         <v>1</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="26" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="40" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H30" s="41"/>
       <c r="I30" s="50"/>
       <c r="J30" s="40" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K30" s="41"/>
       <c r="L30" s="41"/>
@@ -10976,7 +10996,7 @@
     </row>
     <row r="35" s="3" customFormat="1" spans="1:15">
       <c r="A35" s="21" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -10995,28 +11015,28 @@
     </row>
     <row r="36" s="3" customFormat="1" spans="1:15">
       <c r="A36" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="24" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
       <c r="J36" s="24" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K36" s="49"/>
       <c r="L36" s="49"/>
@@ -11029,23 +11049,23 @@
         <v>1</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="26" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H37" s="41"/>
       <c r="I37" s="50"/>
       <c r="J37" s="40" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K37" s="41"/>
       <c r="L37" s="41"/>
@@ -11123,7 +11143,7 @@
     </row>
     <row r="42" s="1" customFormat="1" spans="1:15">
       <c r="A42" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -11145,27 +11165,27 @@
         <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -11174,23 +11194,23 @@
     <row r="44" s="1" customFormat="1" spans="1:15">
       <c r="A44" s="29"/>
       <c r="B44" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
@@ -11199,13 +11219,13 @@
     <row r="45" s="1" customFormat="1" spans="1:15">
       <c r="A45" s="29"/>
       <c r="B45" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -11220,7 +11240,7 @@
     <row r="46" s="1" customFormat="1" spans="1:15">
       <c r="A46" s="29"/>
       <c r="B46" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="6"/>
@@ -11230,11 +11250,11 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="40" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M46" s="41"/>
       <c r="N46" s="41"/>
@@ -11243,7 +11263,7 @@
     <row r="47" s="1" customFormat="1" spans="1:15">
       <c r="A47" s="29"/>
       <c r="B47" s="30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
@@ -11262,21 +11282,21 @@
     <row r="48" s="1" customFormat="1" spans="1:15">
       <c r="A48" s="29"/>
       <c r="B48" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -11292,12 +11312,12 @@
         <v>1</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -11346,19 +11366,19 @@
     <row r="52" s="1" customFormat="1" spans="1:15">
       <c r="A52" s="29"/>
       <c r="B52" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="6"/>
@@ -11369,19 +11389,19 @@
     <row r="53" s="1" customFormat="1" spans="1:15">
       <c r="A53" s="29"/>
       <c r="B53" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="6"/>
@@ -11392,13 +11412,13 @@
     <row r="54" s="1" customFormat="1" spans="1:15">
       <c r="A54" s="29"/>
       <c r="B54" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -11413,7 +11433,7 @@
     <row r="55" s="1" customFormat="1" spans="1:15">
       <c r="A55" s="29"/>
       <c r="B55" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
@@ -11423,7 +11443,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="6"/>
@@ -11434,7 +11454,7 @@
     <row r="56" s="1" customFormat="1" spans="1:15">
       <c r="A56" s="29"/>
       <c r="B56" s="30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C56" s="30"/>
       <c r="D56" s="30"/>
@@ -11453,21 +11473,21 @@
     <row r="57" s="1" customFormat="1" spans="1:15">
       <c r="A57" s="29"/>
       <c r="B57" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -11680,7 +11700,7 @@
   <sheetPr/>
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -11703,12 +11723,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
@@ -11724,20 +11744,20 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
@@ -11749,17 +11769,17 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="36"/>
@@ -11772,17 +11792,17 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="36"/>
@@ -11795,12 +11815,12 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
@@ -11833,7 +11853,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -11852,49 +11872,49 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="O8" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -11902,24 +11922,24 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="6"/>
       <c r="H9" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J9" s="44">
         <v>32</v>
@@ -11937,18 +11957,18 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="14"/>
       <c r="H10" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J10" s="44">
         <v>32</v>
@@ -11966,18 +11986,18 @@
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="17"/>
       <c r="H11" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J11" s="44">
         <v>100</v>
@@ -11995,18 +12015,18 @@
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="6"/>
       <c r="H12" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J12" s="44">
         <v>200</v>
@@ -12024,18 +12044,18 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="17"/>
       <c r="H13" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J13" s="44"/>
       <c r="K13" s="15"/>
@@ -12051,16 +12071,16 @@
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="17"/>
       <c r="H14" s="10"/>
       <c r="I14" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J14" s="44">
         <v>100</v>
@@ -12078,18 +12098,18 @@
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="17"/>
       <c r="H15" s="26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J15" s="44"/>
       <c r="K15" s="15"/>
@@ -12107,18 +12127,18 @@
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="6"/>
       <c r="H16" s="26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J16" s="44"/>
       <c r="K16" s="10"/>
@@ -12136,16 +12156,16 @@
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="6" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="6"/>
       <c r="H17" s="10"/>
       <c r="I17" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J17" s="44">
         <v>100</v>
@@ -12163,16 +12183,16 @@
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="6"/>
       <c r="H18" s="10"/>
       <c r="I18" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J18" s="44">
         <v>100</v>
@@ -12190,16 +12210,16 @@
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="6"/>
       <c r="H19" s="10"/>
       <c r="I19" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J19" s="44">
         <v>50</v>
@@ -12217,16 +12237,16 @@
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="6" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="6"/>
       <c r="H20" s="10"/>
       <c r="I20" s="18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J20" s="44"/>
       <c r="K20" s="10"/>
@@ -12242,16 +12262,16 @@
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="6"/>
       <c r="H21" s="10"/>
       <c r="I21" s="18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J21" s="44"/>
       <c r="K21" s="10"/>
@@ -12267,16 +12287,16 @@
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="6" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="6"/>
       <c r="H22" s="10"/>
       <c r="I22" s="43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J22" s="44">
         <v>500</v>
@@ -12357,7 +12377,7 @@
     </row>
     <row r="27" s="3" customFormat="1" spans="1:15">
       <c r="A27" s="21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -12376,28 +12396,28 @@
     </row>
     <row r="28" s="3" customFormat="1" spans="1:15">
       <c r="A28" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
       <c r="J28" s="24" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K28" s="49"/>
       <c r="L28" s="49"/>
@@ -12410,21 +12430,21 @@
         <v>1</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="26" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="40" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H29" s="41"/>
       <c r="I29" s="50"/>
       <c r="J29" s="40" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
@@ -12502,7 +12522,7 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="1:15">
       <c r="A34" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -12524,27 +12544,27 @@
         <v>1</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
@@ -12553,23 +12573,23 @@
     <row r="36" s="1" customFormat="1" spans="1:15">
       <c r="A36" s="29"/>
       <c r="B36" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
@@ -12578,13 +12598,13 @@
     <row r="37" s="1" customFormat="1" spans="1:15">
       <c r="A37" s="29"/>
       <c r="B37" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -12599,7 +12619,7 @@
     <row r="38" s="1" customFormat="1" spans="1:15">
       <c r="A38" s="29"/>
       <c r="B38" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="6"/>
@@ -12609,11 +12629,11 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="40" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M38" s="41"/>
       <c r="N38" s="41"/>
@@ -12622,7 +12642,7 @@
     <row r="39" s="1" customFormat="1" spans="1:15">
       <c r="A39" s="29"/>
       <c r="B39" s="30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
@@ -12641,21 +12661,21 @@
     <row r="40" s="1" customFormat="1" spans="1:15">
       <c r="A40" s="29"/>
       <c r="B40" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -12671,12 +12691,12 @@
         <v>1</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>

--- a/code/backend/010.codegen/model/duzhou-app-modeler.app-module.xlsx
+++ b/code/backend/010.codegen/model/duzhou-app-modeler.app-module.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27645" windowHeight="12330" firstSheet="6" activeTab="9"/>
+    <workbookView windowWidth="27645" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="301">
   <si>
     <t>#变量名</t>
   </si>
@@ -109,7 +109,7 @@
     <t>app.maven.parent.version</t>
   </si>
   <si>
-    <t>app.web.starter.type</t>
+    <t>app.module.webStarterType</t>
   </si>
   <si>
     <t>spring</t>
@@ -663,6 +663,21 @@
     <t>在应用内唯一</t>
   </si>
   <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>domains</t>
+  </si>
+  <si>
+    <t>pub,ref-pub,ref-cascade-delete</t>
+  </si>
+  <si>
+    <t>appId</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>duzhou_dev_app_dict</t>
   </si>
   <si>
@@ -696,6 +711,9 @@
     <t>UK_DEV_APP_DICT_NAME</t>
   </si>
   <si>
+    <t>dicts</t>
+  </si>
+  <si>
     <t>duzhou_dev_app_module</t>
   </si>
   <si>
@@ -717,19 +735,7 @@
     <t>UK_DEV_APP_MODULE_CODE</t>
   </si>
   <si>
-    <t>app</t>
-  </si>
-  <si>
     <t>modules</t>
-  </si>
-  <si>
-    <t>pub,ref-pub,ref-cascade-delete</t>
-  </si>
-  <si>
-    <t>appId</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>duzhou_dev_app_entity</t>
@@ -2484,7 +2490,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -2686,8 +2692,8 @@
   <sheetPr/>
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2735,7 +2741,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -2743,7 +2749,7 @@
         <v>123</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
@@ -2760,7 +2766,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -2783,7 +2789,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -2806,7 +2812,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
@@ -2943,10 +2949,10 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="14"/>
@@ -2972,10 +2978,10 @@
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="17"/>
@@ -3001,10 +3007,10 @@
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="18" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
@@ -3030,10 +3036,10 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="17"/>
@@ -3057,7 +3063,7 @@
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>180</v>
@@ -3088,7 +3094,7 @@
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>128</v>
@@ -3115,10 +3121,10 @@
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="18" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="6"/>
@@ -3133,7 +3139,7 @@
       <c r="L16" s="45"/>
       <c r="M16" s="6"/>
       <c r="N16" s="45" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O16" s="10"/>
     </row>
@@ -3144,10 +3150,10 @@
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="6" t="s">
@@ -3439,7 +3445,7 @@
     </row>
     <row r="33" s="3" customFormat="1" spans="1:15">
       <c r="A33" s="21" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -3465,7 +3471,7 @@
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="24" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>63</v>
@@ -3600,14 +3606,14 @@
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="4" t="s">
         <v>177</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -3616,7 +3622,7 @@
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -3685,7 +3691,7 @@
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="40" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="M44" s="41"/>
       <c r="N44" s="41"/>
@@ -3743,12 +3749,12 @@
         <v>1</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -3803,7 +3809,7 @@
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="4" t="s">
@@ -3817,7 +3823,7 @@
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -3886,7 +3892,7 @@
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="40" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="M53" s="41"/>
       <c r="N53" s="41"/>
@@ -3944,12 +3950,12 @@
         <v>1</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -4400,8 +4406,8 @@
   <sheetPr/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -5136,8 +5142,8 @@
   <sheetPr/>
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:E35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6459,8 +6465,8 @@
   <sheetPr/>
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7171,24 +7177,32 @@
       <c r="O30" s="9"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:15">
-      <c r="A31" s="29"/>
+      <c r="A31" s="29">
+        <v>1</v>
+      </c>
       <c r="B31" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="E31" s="6"/>
       <c r="F31" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="4" t="s">
         <v>178</v>
       </c>
       <c r="K31" s="4"/>
-      <c r="L31" s="6"/>
+      <c r="L31" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
@@ -7211,7 +7225,9 @@
         <v>180</v>
       </c>
       <c r="K32" s="4"/>
-      <c r="L32" s="6"/>
+      <c r="L32" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
@@ -7253,7 +7269,9 @@
         <v>128</v>
       </c>
       <c r="K34" s="4"/>
-      <c r="L34" s="40"/>
+      <c r="L34" s="40" t="s">
+        <v>207</v>
+      </c>
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
       <c r="O34" s="50"/>
@@ -7309,10 +7327,14 @@
       <c r="B37" s="10">
         <v>1</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="10" t="s">
+        <v>208</v>
+      </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="F37" s="10" t="s">
+        <v>209</v>
+      </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
@@ -7677,8 +7699,8 @@
   <sheetPr/>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7725,7 +7747,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -7733,7 +7755,7 @@
         <v>123</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
@@ -7750,7 +7772,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -7773,7 +7795,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -7796,7 +7818,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
@@ -8013,7 +8035,7 @@
       <c r="L12" s="47"/>
       <c r="M12" s="17"/>
       <c r="N12" s="47" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O12" s="55"/>
     </row>
@@ -8024,10 +8046,10 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="17"/>
@@ -8053,10 +8075,10 @@
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="6" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="6" t="s">
@@ -8292,7 +8314,7 @@
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="40" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H26" s="41"/>
       <c r="I26" s="50"/>
@@ -8393,24 +8415,32 @@
       <c r="O31" s="9"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:15">
-      <c r="A32" s="29"/>
+      <c r="A32" s="29">
+        <v>1</v>
+      </c>
       <c r="B32" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="E32" s="6"/>
       <c r="F32" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G32" s="6"/>
+      <c r="G32" s="6" t="s">
+        <v>221</v>
+      </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="4" t="s">
         <v>178</v>
       </c>
       <c r="K32" s="4"/>
-      <c r="L32" s="6"/>
+      <c r="L32" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
@@ -8433,7 +8463,9 @@
         <v>180</v>
       </c>
       <c r="K33" s="4"/>
-      <c r="L33" s="6"/>
+      <c r="L33" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
@@ -8475,7 +8507,9 @@
         <v>128</v>
       </c>
       <c r="K35" s="4"/>
-      <c r="L35" s="40"/>
+      <c r="L35" s="40" t="s">
+        <v>207</v>
+      </c>
       <c r="M35" s="41"/>
       <c r="N35" s="41"/>
       <c r="O35" s="50"/>
@@ -8531,10 +8565,14 @@
       <c r="B38" s="10">
         <v>1</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="10" t="s">
+        <v>208</v>
+      </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="F38" s="10" t="s">
+        <v>209</v>
+      </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
@@ -8899,8 +8937,8 @@
   <sheetPr/>
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31:O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8948,7 +8986,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -8956,7 +8994,7 @@
         <v>123</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
@@ -8973,7 +9011,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -8996,7 +9034,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -9019,7 +9057,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
@@ -9516,12 +9554,12 @@
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="40" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="H24" s="41"/>
       <c r="I24" s="50"/>
@@ -9630,14 +9668,14 @@
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="4" t="s">
         <v>177</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -9715,7 +9753,7 @@
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="40" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
@@ -9773,12 +9811,12 @@
         <v>1</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -10145,7 +10183,7 @@
   <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10192,7 +10230,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -10200,7 +10238,7 @@
         <v>123</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
@@ -10217,7 +10255,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -10240,7 +10278,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -10265,7 +10303,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
@@ -10557,10 +10595,10 @@
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="14"/>
@@ -10618,7 +10656,7 @@
         <v>194</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="17"/>
@@ -10644,7 +10682,7 @@
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>121</v>
@@ -10673,7 +10711,7 @@
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>128</v>
@@ -10700,7 +10738,7 @@
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>165</v>
@@ -10727,10 +10765,10 @@
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="17" t="s">
@@ -10908,17 +10946,17 @@
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="26" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="40" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H30" s="41"/>
       <c r="I30" s="50"/>
       <c r="J30" s="40" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K30" s="41"/>
       <c r="L30" s="41"/>
@@ -10996,7 +11034,7 @@
     </row>
     <row r="35" s="3" customFormat="1" spans="1:15">
       <c r="A35" s="21" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -11022,7 +11060,7 @@
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="24" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>63</v>
@@ -11049,11 +11087,11 @@
         <v>1</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="26" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>125</v>
@@ -11169,14 +11207,14 @@
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="4" t="s">
         <v>177</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -11185,7 +11223,7 @@
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="6" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -11254,7 +11292,7 @@
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="40" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="M46" s="41"/>
       <c r="N46" s="41"/>
@@ -11312,12 +11350,12 @@
         <v>1</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -11749,7 +11787,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -11757,7 +11795,7 @@
         <v>123</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
@@ -11774,7 +11812,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -11797,7 +11835,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -11820,7 +11858,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
@@ -11957,10 +11995,10 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="14"/>
@@ -12044,7 +12082,7 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>131</v>
@@ -12071,7 +12109,7 @@
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>128</v>
@@ -12098,10 +12136,10 @@
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="17"/>
@@ -12109,7 +12147,7 @@
         <v>142</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J15" s="44"/>
       <c r="K15" s="15"/>
@@ -12127,10 +12165,10 @@
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="6"/>
@@ -12138,7 +12176,7 @@
         <v>142</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J16" s="44"/>
       <c r="K16" s="10"/>
@@ -12156,7 +12194,7 @@
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>134</v>
@@ -12183,10 +12221,10 @@
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="6"/>
@@ -12213,7 +12251,7 @@
         <v>196</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="6"/>
@@ -12240,7 +12278,7 @@
         <v>198</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="6"/>
@@ -12287,10 +12325,10 @@
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="6"/>
@@ -12434,17 +12472,17 @@
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="26" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="40" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H29" s="41"/>
       <c r="I29" s="50"/>
       <c r="J29" s="40" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
@@ -12548,14 +12586,14 @@
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="4" t="s">
         <v>177</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -12564,7 +12602,7 @@
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
@@ -12633,7 +12671,7 @@
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="40" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M38" s="41"/>
       <c r="N38" s="41"/>
@@ -12691,12 +12729,12 @@
         <v>1</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>

--- a/code/backend/010.codegen/model/duzhou-app-modeler.app-module.xlsx
+++ b/code/backend/010.codegen/model/duzhou-app-modeler.app-module.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27645" windowHeight="12330" activeTab="4"/>
+    <workbookView windowWidth="27645" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>duzhou-platform</t>
   </si>
   <si>
-    <t>app.name</t>
+    <t>app.displayName</t>
   </si>
   <si>
     <t>渡舟平台</t>
@@ -118,7 +118,7 @@
     <t>可选值：spring, quarkus</t>
   </si>
   <si>
-    <t>app.module.name</t>
+    <t>app.module.displayName</t>
   </si>
   <si>
     <t>应用建模器</t>
@@ -2489,8 +2489,8 @@
   <sheetPr/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -4152,7 +4152,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -6465,7 +6465,7 @@
   <sheetPr/>
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -8937,8 +8937,8 @@
   <sheetPr/>
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31:O33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F38:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
